--- a/Price_Change.xlsx
+++ b/Price_Change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EFD58D-8991-4208-B750-E0DEA2DD78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E852E-F6A7-4CFF-AD54-7A27549B0B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>companyName</t>
   </si>
@@ -34,30 +34,6 @@
   </si>
   <si>
     <t>TATA CONSULTANCY SERVICES LTD.</t>
-  </si>
-  <si>
-    <t>HDFC Bank Ltd</t>
-  </si>
-  <si>
-    <t>ICICI BANK LTD.</t>
-  </si>
-  <si>
-    <t>INFOSYS LTD.</t>
-  </si>
-  <si>
-    <t>STATE BANK OF INDIA</t>
-  </si>
-  <si>
-    <t>Life Insurance Corporation of India</t>
-  </si>
-  <si>
-    <t>BHARTI AIRTEL LTD.</t>
-  </si>
-  <si>
-    <t>HINDUSTAN UNILEVER LTD.</t>
-  </si>
-  <si>
-    <t>ITC LTD.</t>
   </si>
   <si>
     <t>SecurityCode</t>
@@ -384,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P4" sqref="P4:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,9 +372,9 @@
     <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,7 +410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>500325</v>
       </c>
@@ -445,107 +421,69 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="F2">
+        <v>138</v>
+      </c>
+      <c r="G2">
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>183</v>
+      </c>
+      <c r="I2">
+        <v>176</v>
+      </c>
+      <c r="J2">
+        <v>78</v>
+      </c>
+      <c r="K2">
+        <v>175</v>
+      </c>
+      <c r="L2">
         <v>160</v>
       </c>
-      <c r="G2">
-        <v>180</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>220</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>260</v>
-      </c>
-      <c r="L2">
-        <v>40</v>
-      </c>
-      <c r="N2">
-        <f>((I2-C2)/C2)*100</f>
-        <v>120</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>532540</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>500180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>532174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>500209</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>500112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>543526</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>532454</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>500696</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>500875</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>132</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>198</v>
+      </c>
+      <c r="G3">
+        <v>122</v>
+      </c>
+      <c r="H3">
+        <v>128</v>
+      </c>
+      <c r="I3">
+        <v>152</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>78</v>
+      </c>
+      <c r="L3">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
